--- a/data/metadata/20210421_FBGRBGOGTT_Huishi sample sheet_original.xlsx
+++ b/data/metadata/20210421_FBGRBGOGTT_Huishi sample sheet_original.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\AJ_20210729_Toh_RatPlasma_Glucose\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nile_rat_multiomics\data\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B00360FF-2B32-4BA1-AB91-BB00CF1C3D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED070030-254D-4614-BCD5-C1F851C040A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{738F6AC3-FEF2-0849-9025-0F50FEEDD7DB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{738F6AC3-FEF2-0849-9025-0F50FEEDD7DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <definedName name="a0">'Raw Data'!$AM$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25531,31 +25532,31 @@
   <dimension ref="A1:BX29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F6" sqref="F6"/>
+      <pane xSplit="1" topLeftCell="AQ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BO4" sqref="BO4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="3" customWidth="1"/>
-    <col min="6" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="8" width="18.125" customWidth="1"/>
-    <col min="9" max="11" width="10.875" customWidth="1"/>
-    <col min="12" max="12" width="12.875" customWidth="1"/>
-    <col min="13" max="13" width="10.875" customWidth="1"/>
-    <col min="15" max="15" width="10.875" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.08203125" customWidth="1"/>
+    <col min="9" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
     <col min="16" max="16" width="12.5" customWidth="1"/>
-    <col min="17" max="20" width="10.875" customWidth="1"/>
-    <col min="22" max="22" width="10.875" customWidth="1"/>
-    <col min="23" max="23" width="12.875" customWidth="1"/>
-    <col min="24" max="24" width="10.875" customWidth="1"/>
-    <col min="26" max="31" width="10.875" customWidth="1"/>
-    <col min="33" max="35" width="10.875" customWidth="1"/>
-    <col min="37" max="57" width="10.875" customWidth="1"/>
+    <col min="17" max="20" width="10.83203125" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" customWidth="1"/>
+    <col min="23" max="23" width="12.83203125" customWidth="1"/>
+    <col min="24" max="24" width="10.83203125" customWidth="1"/>
+    <col min="26" max="31" width="10.83203125" customWidth="1"/>
+    <col min="33" max="35" width="10.83203125" customWidth="1"/>
+    <col min="37" max="57" width="10.83203125" customWidth="1"/>
     <col min="58" max="58" width="15" bestFit="1" customWidth="1"/>
-    <col min="59" max="60" width="10.875" customWidth="1"/>
+    <col min="59" max="60" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:76">
@@ -30279,6 +30280,10 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
+      <c r="BG26">
+        <f>58.5+((178-58.5)*0.5)</f>
+        <v>118.25</v>
+      </c>
     </row>
     <row r="27" spans="1:75">
       <c r="A27" t="s">
@@ -30369,9 +30374,9 @@
       <selection activeCell="A3" sqref="A3:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -30841,7 +30846,7 @@
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="2" spans="1:21">
       <c r="B2" t="s">
@@ -32416,7 +32421,7 @@
       <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" t="s">
@@ -32760,15 +32765,15 @@
         <v>221.99074074074076</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:E20" si="0">AVERAGE(C2:C19)</f>
+        <f>AVERAGE(C2:C19)</f>
         <v>196.5</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D2:D19)</f>
         <v>191.72222222222223</v>
       </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E2:E19)</f>
         <v>241.01851851851856</v>
       </c>
     </row>
@@ -33207,19 +33212,19 @@
         <v>62.939814814814817</v>
       </c>
       <c r="C40">
-        <f t="shared" ref="C40:F40" si="1">AVERAGE(C22:C39)</f>
+        <f>AVERAGE(C22:C39)</f>
         <v>58.50462962962964</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(D22:D39)</f>
         <v>55.203703703703709</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(E22:E39)</f>
         <v>55.629629629629633</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(F22:F39)</f>
         <v>71.083333333333329</v>
       </c>
     </row>
@@ -33237,9 +33242,9 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
-    <col min="2" max="2" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -33401,7 +33406,7 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="16"/>
@@ -34154,11 +34159,11 @@
         <v>101.97619047619047</v>
       </c>
       <c r="C25">
-        <f t="shared" ref="C25:D25" si="3">AVERAGE(C17:C23)</f>
+        <f>AVERAGE(C17:C23)</f>
         <v>72.047619047619051</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
+        <f>AVERAGE(D17:D23)</f>
         <v>66.785714285714292</v>
       </c>
       <c r="G25">
@@ -34166,11 +34171,11 @@
         <v>48.297619047619051</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:I25" si="4">AVERAGE(H17:H23)</f>
+        <f>AVERAGE(H17:H23)</f>
         <v>59.857142857142854</v>
       </c>
       <c r="I25">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(I17:I23)</f>
         <v>54.285714285714285</v>
       </c>
     </row>
